--- a/biology/Botanique/Stokésie_bleue/Stokésie_bleue.xlsx
+++ b/biology/Botanique/Stokésie_bleue/Stokésie_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stok%C3%A9sie_bleue</t>
+          <t>Stokésie_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stokesia laevis
 La  Stokésie bleue, aussi connue sous le nom d'Aster de Stokes ou encore de  Bleuet de Stokes, est une espèce de plante à fleurs dicotylédone de la famille des Asteraceae. C’est une plante native du sud-est des États-Unis. Ce genre ne compte qu’une seule espèce. Elle fut initialement décrite sous le nom Carthamus Laevis en 1769 par Hill.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stok%C3%A9sie_bleue</t>
+          <t>Stokésie_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace qui a à la fois l’aspect d’une Centaurée, et d’un Carthame.
 C’est une plante robuste au port érigée avec une hauteur atteignant 50cm, sa partie supérieure est tomenteuse. Les feuilles sont lancéolées, glabres et alternées, celles de la base sont épineuses.
